--- a/xlsx/country_comparison/field_issue_manual_positive.xlsx
+++ b/xlsx/country_comparison/field_issue_manual_positive.xlsx
@@ -56,12 +56,12 @@
     <t xml:space="preserve">Nothing; don't know; empty</t>
   </si>
   <si>
+    <t xml:space="preserve">Tax system; welfare benefits; public services</t>
+  </si>
+  <si>
     <t xml:space="preserve">Other topic; unclear; vague</t>
   </si>
   <si>
-    <t xml:space="preserve">Tax system; welfare benefits; public services</t>
-  </si>
-  <si>
     <t xml:space="preserve">Health; healthcare system</t>
   </si>
   <si>
@@ -95,25 +95,25 @@
     <t xml:space="preserve">Rights; democracy; freedom; slavery</t>
   </si>
   <si>
+    <t xml:space="preserve">Family; children; childcare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corruption; criticism of the government</t>
+  </si>
+  <si>
     <t xml:space="preserve">Work; (un)employment; business</t>
   </si>
   <si>
-    <t xml:space="preserve">Family; children; childcare</t>
+    <t xml:space="preserve">Criticism of far right; Trump; tariffs</t>
   </si>
   <si>
     <t xml:space="preserve">International issues</t>
   </si>
   <si>
-    <t xml:space="preserve">Corruption; criticism of the government</t>
-  </si>
-  <si>
     <t xml:space="preserve">War; peace</t>
   </si>
   <si>
     <t xml:space="preserve">Own country referred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criticism of far right; Trump; tariffs</t>
   </si>
   <si>
     <t xml:space="preserve">Social division; fake news; (social) media</t>
@@ -509,13 +509,13 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.177418277386371</v>
+        <v>0.197989890531552</v>
       </c>
       <c r="C2" t="n">
-        <v>0.148187543220652</v>
+        <v>0.148051045728056</v>
       </c>
       <c r="D2" t="n">
-        <v>0.139310980380525</v>
+        <v>0.138501464069102</v>
       </c>
       <c r="E2" t="n">
         <v>0.205719679290643</v>
@@ -536,13 +536,13 @@
         <v>0.202660250203406</v>
       </c>
       <c r="K2" t="n">
-        <v>0.332933643976392</v>
+        <v>0.358648128445917</v>
       </c>
       <c r="L2" t="n">
         <v>0.165970814351224</v>
       </c>
       <c r="M2" t="n">
-        <v>0.187517506534334</v>
+        <v>0.194826161756528</v>
       </c>
     </row>
     <row r="3">
@@ -550,40 +550,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.120535753030506</v>
+        <v>0.121215657658355</v>
       </c>
       <c r="C3" t="n">
-        <v>0.106025975356503</v>
+        <v>0.124877208989598</v>
       </c>
       <c r="D3" t="n">
-        <v>0.118465727557747</v>
+        <v>0.170016423959133</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0631817374212261</v>
+        <v>0.0684977868214666</v>
       </c>
       <c r="F3" t="n">
-        <v>0.128645233847702</v>
+        <v>0.12557413170005</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0745785019334883</v>
+        <v>0.0634128047440736</v>
       </c>
       <c r="H3" t="n">
-        <v>0.128390006372839</v>
+        <v>0.134048514921496</v>
       </c>
       <c r="I3" t="n">
-        <v>0.130233145338353</v>
+        <v>0.196251198123249</v>
       </c>
       <c r="J3" t="n">
-        <v>0.128755558787274</v>
+        <v>0.0679737350856037</v>
       </c>
       <c r="K3" t="n">
-        <v>0.106303196449983</v>
+        <v>0.189027147858945</v>
       </c>
       <c r="L3" t="n">
-        <v>0.11173959783046</v>
+        <v>0.00496324634123614</v>
       </c>
       <c r="M3" t="n">
-        <v>0.158059386693177</v>
+        <v>0.0996556482437397</v>
       </c>
     </row>
     <row r="4">
@@ -591,40 +591,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.118694137837459</v>
+        <v>0.116680365022322</v>
       </c>
       <c r="C4" t="n">
-        <v>0.124992341076816</v>
+        <v>0.105928313437885</v>
       </c>
       <c r="D4" t="n">
-        <v>0.171010139580334</v>
+        <v>0.117777340048445</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0684977868214666</v>
+        <v>0.0631817374212261</v>
       </c>
       <c r="F4" t="n">
-        <v>0.12557413170005</v>
+        <v>0.128645233847702</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0634128047440736</v>
+        <v>0.0745785019334883</v>
       </c>
       <c r="H4" t="n">
-        <v>0.134048514921496</v>
+        <v>0.128390006372839</v>
       </c>
       <c r="I4" t="n">
-        <v>0.196251198123249</v>
+        <v>0.130233145338353</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0679737350856037</v>
+        <v>0.128755558787274</v>
       </c>
       <c r="K4" t="n">
-        <v>0.224544993509676</v>
+        <v>0.112431390841972</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00496324634123614</v>
+        <v>0.11173959783046</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0909212824749905</v>
+        <v>0.131502784259155</v>
       </c>
     </row>
     <row r="5">
@@ -632,13 +632,13 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0947248420772753</v>
+        <v>0.0946326240965739</v>
       </c>
       <c r="C5" t="n">
-        <v>0.104428259920957</v>
+        <v>0.104332069679013</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0731337343406253</v>
+        <v>0.0727087646024017</v>
       </c>
       <c r="E5" t="n">
         <v>0.0548235604207053</v>
@@ -659,13 +659,13 @@
         <v>0.0480688009167547</v>
       </c>
       <c r="K5" t="n">
-        <v>0.034210265599825</v>
+        <v>0.0406456315016913</v>
       </c>
       <c r="L5" t="n">
         <v>0.0706438468169936</v>
       </c>
       <c r="M5" t="n">
-        <v>0.106425514100544</v>
+        <v>0.107071469108486</v>
       </c>
     </row>
     <row r="6">
@@ -673,13 +673,13 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0797096939207061</v>
+        <v>0.0874536458236186</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0700514065397275</v>
+        <v>0.0699868812689949</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0637461219315909</v>
+        <v>0.0633757022751316</v>
       </c>
       <c r="E6" t="n">
         <v>0.0585225910641116</v>
@@ -700,13 +700,13 @@
         <v>0.0464911360103126</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0894155105254838</v>
+        <v>0.0837034572096034</v>
       </c>
       <c r="L6" t="n">
         <v>0.10591414003764</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0984866033604372</v>
+        <v>0.107954316871299</v>
       </c>
     </row>
     <row r="7">
@@ -714,13 +714,13 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0661121836927644</v>
+        <v>0.0636268803712482</v>
       </c>
       <c r="C7" t="n">
-        <v>0.065448405451431</v>
+        <v>0.0653881200654641</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0405846389074523</v>
+        <v>0.0403488073376863</v>
       </c>
       <c r="E7" t="n">
         <v>0.0932904858760773</v>
@@ -741,13 +741,13 @@
         <v>0.097075128015278</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0109398998187212</v>
+        <v>0.0101460603464424</v>
       </c>
       <c r="L7" t="n">
         <v>0.107603402117173</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0762324240823491</v>
+        <v>0.0793032106226486</v>
       </c>
     </row>
     <row r="8">
@@ -755,22 +755,22 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0604466362132146</v>
+        <v>0.05089304703529</v>
       </c>
       <c r="C8" t="n">
-        <v>0.080981999161607</v>
+        <v>0.0809074055784303</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0840876707415388</v>
+        <v>0.0835990492354028</v>
       </c>
       <c r="E8" t="n">
-        <v>0.103981579435835</v>
+        <v>0.103981579435834</v>
       </c>
       <c r="F8" t="n">
         <v>0.0400337101044929</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0654772854472838</v>
+        <v>0.0654772854472837</v>
       </c>
       <c r="H8" t="n">
         <v>0.0420087826917777</v>
@@ -782,13 +782,13 @@
         <v>0.083051593759224</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0174878207070434</v>
+        <v>0.0164795552342797</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0104439844678115</v>
+        <v>0.0104439844678116</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0351791462761993</v>
+        <v>0.0329133575873966</v>
       </c>
     </row>
     <row r="9">
@@ -796,13 +796,13 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0544706769255628</v>
+        <v>0.0507792367227714</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0665215302173792</v>
+        <v>0.0664602563620942</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0459645623122523</v>
+        <v>0.0456974687720479</v>
       </c>
       <c r="E9" t="n">
         <v>0.146495779100146</v>
@@ -823,13 +823,13 @@
         <v>0.0397837893845418</v>
       </c>
       <c r="K9" t="n">
-        <v>0.104252441140005</v>
+        <v>0.0984457754716953</v>
       </c>
       <c r="L9" t="n">
         <v>0.01038355838795</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0120778234356675</v>
+        <v>0.0165716393337311</v>
       </c>
     </row>
     <row r="10">
@@ -837,13 +837,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0484541731341629</v>
+        <v>0.0500796525163429</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0597674272515481</v>
+        <v>0.0597123746892242</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0962475525914873</v>
+        <v>0.0956882717397949</v>
       </c>
       <c r="E10" t="n">
         <v>0.0416750021343697</v>
@@ -864,13 +864,13 @@
         <v>0.0157951292141256</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0112926908753147</v>
+        <v>0.0265363070055788</v>
       </c>
       <c r="L10" t="n">
         <v>0.0335459994388848</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0335111161967204</v>
+        <v>0.0496624793032985</v>
       </c>
     </row>
     <row r="11">
@@ -878,13 +878,13 @@
         <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>0.044821722236592</v>
+        <v>0.0397070828837157</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0476621146170846</v>
+        <v>0.0476182124172392</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0278637331355673</v>
+        <v>0.0277018209416486</v>
       </c>
       <c r="E11" t="n">
         <v>0.0711490367660588</v>
@@ -905,13 +905,13 @@
         <v>0.0867702527786001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0133688187964582</v>
+        <v>0.00833038587830089</v>
       </c>
       <c r="L11" t="n">
         <v>0.0708983608168226</v>
       </c>
       <c r="M11" t="n">
-        <v>0.045746639097844</v>
+        <v>0.0403253419134581</v>
       </c>
     </row>
     <row r="12">
@@ -919,13 +919,13 @@
         <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0400214523785548</v>
+        <v>0.0391474810544132</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0490594486654291</v>
+        <v>0.0490142593628369</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0165123782177004</v>
+        <v>0.0164164271342244</v>
       </c>
       <c r="E12" t="n">
         <v>0.0739517002540561</v>
@@ -946,13 +946,13 @@
         <v>0.0931626966332555</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0152117256349682</v>
+        <v>0.0203560384649348</v>
       </c>
       <c r="L12" t="n">
         <v>0.0523619194817866</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0250967714105529</v>
+        <v>0.0339464115087384</v>
       </c>
     </row>
     <row r="13">
@@ -960,13 +960,13 @@
         <v>24</v>
       </c>
       <c r="B13" t="n">
-        <v>0.03761890246106</v>
+        <v>0.0380395664775074</v>
       </c>
       <c r="C13" t="n">
-        <v>0.028338046691949</v>
+        <v>0.0283119441449031</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0212051977804281</v>
+        <v>0.0210819773893052</v>
       </c>
       <c r="E13" t="n">
         <v>0.029234203758636</v>
@@ -987,13 +987,13 @@
         <v>0.037785604500177</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0198607986212837</v>
+        <v>0.0207405595274057</v>
       </c>
       <c r="L13" t="n">
         <v>0.0297071000031388</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0652410942183106</v>
+        <v>0.0572157750370358</v>
       </c>
     </row>
     <row r="14">
@@ -1001,13 +1001,13 @@
         <v>25</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0265055957468045</v>
+        <v>0.030794279726928</v>
       </c>
       <c r="C14" t="n">
-        <v>0.024234437205877</v>
+        <v>0.0242121145474322</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0220222982897339</v>
+        <v>0.0218943298436583</v>
       </c>
       <c r="E14" t="n">
         <v>0.00689573896317971</v>
@@ -1028,13 +1028,13 @@
         <v>0.0185393566157381</v>
       </c>
       <c r="K14" t="n">
-        <v>0.00504485911984683</v>
+        <v>0.0019658296938689</v>
       </c>
       <c r="L14" t="n">
         <v>0.00889747848481</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0440773284246207</v>
+        <v>0.0520955563046277</v>
       </c>
     </row>
     <row r="15">
@@ -1042,13 +1042,13 @@
         <v>26</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0246806539846063</v>
+        <v>0.0250400128357287</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0229249848100484</v>
+        <v>0.0229038683054059</v>
       </c>
       <c r="D15" t="n">
-        <v>0.010869334132387</v>
+        <v>0.0108061739762354</v>
       </c>
       <c r="E15" t="n">
         <v>0.00925554635740441</v>
@@ -1069,13 +1069,13 @@
         <v>0.0267955555190128</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0416250066668569</v>
+        <v>0.0400022905820529</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0250806270700841</v>
+        <v>0.0237010091194293</v>
       </c>
     </row>
     <row r="16">
@@ -1083,40 +1083,40 @@
         <v>27</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0227564915760053</v>
+        <v>0.0210368541948329</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0241925160516487</v>
+        <v>0.0287470325879229</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0165613204356763</v>
+        <v>0.0289798151165568</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0211890842231775</v>
+        <v>0.0257351181488729</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0650217127910245</v>
+        <v>0.0329440764533338</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0122878068459338</v>
+        <v>0.0074396019818407</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0185678745742181</v>
+        <v>0.024998519239736</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0125279576257647</v>
+        <v>0.0460310309201218</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.0178832542446431</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0110505376076825</v>
+        <v>0.0181391382181975</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0683436083672978</v>
+        <v>0.0069047579578598</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0168576855667854</v>
+        <v>0.0143458518089627</v>
       </c>
     </row>
     <row r="17">
@@ -1124,40 +1124,40 @@
         <v>28</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0205024848260619</v>
+        <v>0.0193742444676115</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0287735362701397</v>
+        <v>0.0201816736069127</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0291491969580885</v>
+        <v>0.028525490934299</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0257351181488729</v>
+        <v>0.0103365188804542</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0329440764533338</v>
+        <v>0.00694765792754755</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0074396019818407</v>
+        <v>0.0183128936470154</v>
       </c>
       <c r="H17" t="n">
-        <v>0.024998519239736</v>
+        <v>0.0610940040580105</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0460310309201218</v>
+        <v>0.00920625997154426</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0178832542446431</v>
+        <v>0.00834103730963557</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0239472585014632</v>
+        <v>0.0196414286721123</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0069047579578598</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.00245289836246204</v>
+        <v>0.0200013970443885</v>
       </c>
     </row>
     <row r="18">
@@ -1165,40 +1165,40 @@
         <v>29</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0199923760856794</v>
+        <v>0.0191086261702083</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0192725471842319</v>
+        <v>0.0241702320073297</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0179250625071345</v>
+        <v>0.0164650849559262</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0220434950801112</v>
+        <v>0.0211890842231775</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0236903702436109</v>
+        <v>0.0650217127910245</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0266290295400505</v>
+        <v>0.0122878068459338</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.0185678745742181</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0236377071321289</v>
+        <v>0.0125279576257647</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0140196451359935</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.00318592706908046</v>
+        <v>0.0140475574231894</v>
       </c>
       <c r="L18" t="n">
-        <v>0.122027022218028</v>
+        <v>0.0683436083672978</v>
       </c>
       <c r="M18" t="n">
-        <v>0.010766404850545</v>
+        <v>0.0108958815415581</v>
       </c>
     </row>
     <row r="19">
@@ -1206,40 +1206,40 @@
         <v>30</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0181581453672609</v>
+        <v>0.0178628515572247</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0202002803504868</v>
+        <v>0.00668092660737072</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0286922173321596</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0103365188804542</v>
+        <v>0.0129182280897174</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00694765792754755</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0183128936470154</v>
+        <v>0.0183537763061473</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0610940040580105</v>
+        <v>0.00602906038002368</v>
       </c>
       <c r="I19" t="n">
-        <v>0.00920625997154426</v>
+        <v>0.00466147751962404</v>
       </c>
       <c r="J19" t="n">
-        <v>0.00834103730963557</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0113784604577859</v>
+        <v>0.00202186276770683</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0192105069547693</v>
+        <v>0.0389952674290432</v>
       </c>
     </row>
     <row r="20">
@@ -1247,40 +1247,40 @@
         <v>31</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0178671042032043</v>
+        <v>0.0173356804159371</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0184665201540765</v>
+        <v>0.0192547949878636</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0169668368632216</v>
+        <v>0.0178209025159898</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0328372244457802</v>
+        <v>0.0220434950801112</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0209212049151872</v>
+        <v>0.0236903702436109</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0155033126208991</v>
+        <v>0.0266290295400504</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0151216324951664</v>
+        <v>0.0236377071321289</v>
       </c>
       <c r="J20" t="n">
         <v>0.0140196451359935</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.0039668081105584</v>
       </c>
       <c r="L20" t="n">
-        <v>0.115377714566483</v>
+        <v>0.122027022218028</v>
       </c>
       <c r="M20" t="n">
-        <v>0.00635820595568058</v>
+        <v>0.0113519780494734</v>
       </c>
     </row>
     <row r="21">
@@ -1288,40 +1288,40 @@
         <v>32</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0164714838514547</v>
+        <v>0.0166320520433637</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0225106468478626</v>
+        <v>0.0184495103997934</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0118644991183571</v>
+        <v>0.0168682449851334</v>
       </c>
       <c r="E21" t="n">
-        <v>0.032722438921652</v>
+        <v>0.0328372244457802</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0215158592665767</v>
+        <v>0.0209212049151872</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0542404046788205</v>
+        <v>0.0155033126208991</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0135183307574546</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.00961777048165269</v>
+        <v>0.0151216324951664</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.0140196451359935</v>
       </c>
       <c r="K21" t="n">
-        <v>0.00289433633002276</v>
+        <v>0.00197789964161942</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0116862752064014</v>
+        <v>0.115377714566483</v>
       </c>
       <c r="M21" t="n">
-        <v>0.00691479548354493</v>
+        <v>0.0118046013706793</v>
       </c>
     </row>
     <row r="22">
@@ -1329,40 +1329,40 @@
         <v>33</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0159579103437051</v>
+        <v>0.0154739573174723</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00668708617028121</v>
+        <v>0.0234110251309829</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.0176064141036268</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0129182280897174</v>
+        <v>0.032722438921652</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.0215158592665767</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0183537763061473</v>
+        <v>0.0542404046788205</v>
       </c>
       <c r="H22" t="n">
-        <v>0.00602906038002368</v>
+        <v>0.0135183307574546</v>
       </c>
       <c r="I22" t="n">
-        <v>0.00466147751962404</v>
+        <v>0.00961777048165269</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.00446604663349697</v>
+        <v>0.00799733914096668</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>0.0116862752064014</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0448511883545523</v>
+        <v>0.00946251867531772</v>
       </c>
     </row>
     <row r="23">
@@ -1370,13 +1370,13 @@
         <v>34</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0132992449903713</v>
+        <v>0.0121031428565324</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0133603541931475</v>
+        <v>0.0133480477954036</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0157991620325434</v>
+        <v>0.0157073553469741</v>
       </c>
       <c r="E23" t="n">
         <v>0.016183971794334</v>
@@ -1403,7 +1403,7 @@
         <v>0.0124645288283517</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0177260232866799</v>
+        <v>0.0154880587994553</v>
       </c>
     </row>
     <row r="24">
@@ -1411,13 +1411,13 @@
         <v>35</v>
       </c>
       <c r="B24" t="n">
-        <v>0.011496366306663</v>
+        <v>0.0116948881336728</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0164042509661523</v>
+        <v>0.0163891407951073</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0272426608684391</v>
+        <v>0.0270843576372127</v>
       </c>
       <c r="E24" t="n">
         <v>0.0243148275953029</v>
@@ -1438,13 +1438,13 @@
         <v>0.040903682110868</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.00441182592718498</v>
       </c>
       <c r="L24" t="n">
         <v>0.00305032427250752</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0050577444503125</v>
+        <v>0.00985178852964817</v>
       </c>
     </row>
     <row r="25">
@@ -1452,10 +1452,10 @@
         <v>36</v>
       </c>
       <c r="B25" t="n">
-        <v>0.00792396944046533</v>
+        <v>0.00672215313876716</v>
       </c>
       <c r="C25" t="n">
-        <v>0.00258297409244689</v>
+        <v>0.00258059488108137</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.00549116006129043</v>
+        <v>0.00549116006129044</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.00365884586972234</v>
+        <v>0.00217457348365939</v>
       </c>
       <c r="L25" t="n">
         <v>0.0074082984101723</v>
       </c>
       <c r="M25" t="n">
-        <v>0.023733600533993</v>
+        <v>0.0133808136189827</v>
       </c>
     </row>
     <row r="26">
@@ -1493,13 +1493,13 @@
         <v>37</v>
       </c>
       <c r="B26" t="n">
-        <v>0.00682735086735187</v>
+        <v>0.0049790986234129</v>
       </c>
       <c r="C26" t="n">
-        <v>0.00674207945673625</v>
+        <v>0.00673586923878724</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00595673022082501</v>
+        <v>0.00592211650794085</v>
       </c>
       <c r="E26" t="n">
         <v>0.00381995779778217</v>
@@ -1520,13 +1520,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.00860833613633347</v>
+        <v>0.00413358741501217</v>
       </c>
       <c r="L26" t="n">
         <v>0.0219641258610632</v>
       </c>
       <c r="M26" t="n">
-        <v>0.00498180013928969</v>
+        <v>0.00176997231634839</v>
       </c>
     </row>
     <row r="27">
@@ -1534,10 +1534,10 @@
         <v>38</v>
       </c>
       <c r="B27" t="n">
-        <v>0.00369528254470601</v>
+        <v>0.00325665441128512</v>
       </c>
       <c r="C27" t="n">
-        <v>0.00409320721916791</v>
+        <v>0.00408943691223151</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1567,7 +1567,7 @@
         <v>0.00973873362565546</v>
       </c>
       <c r="M27" t="n">
-        <v>0.00337549556092195</v>
+        <v>0.00302453828730453</v>
       </c>
     </row>
     <row r="28">
@@ -1575,10 +1575,10 @@
         <v>39</v>
       </c>
       <c r="B28" t="n">
-        <v>0.00193154190165766</v>
+        <v>0.00140864850957019</v>
       </c>
       <c r="C28" t="n">
-        <v>0.00140386170998968</v>
+        <v>0.00140256859452801</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1608,7 +1608,7 @@
         <v>0.00256135764241812</v>
       </c>
       <c r="M28" t="n">
-        <v>0.00496254043610791</v>
+        <v>0.00188390632435821</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/field_issue_manual_positive.xlsx
+++ b/xlsx/country_comparison/field_issue_manual_positive.xlsx
@@ -577,7 +577,7 @@
         <v>0.0679737350856037</v>
       </c>
       <c r="K3" t="n">
-        <v>0.189027147858945</v>
+        <v>0.189027147858944</v>
       </c>
       <c r="L3" t="n">
         <v>0.00496324634123614</v>
@@ -618,7 +618,7 @@
         <v>0.128755558787274</v>
       </c>
       <c r="K4" t="n">
-        <v>0.112431390841972</v>
+        <v>0.112431390841971</v>
       </c>
       <c r="L4" t="n">
         <v>0.11173959783046</v>
@@ -685,7 +685,7 @@
         <v>0.0585225910641116</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0939008696127574</v>
+        <v>0.0939008696127573</v>
       </c>
       <c r="G6" t="n">
         <v>0.0617697775487132</v>
@@ -770,7 +770,7 @@
         <v>0.0400337101044929</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0654772854472837</v>
+        <v>0.0654772854472838</v>
       </c>
       <c r="H8" t="n">
         <v>0.0420087826917777</v>
@@ -785,7 +785,7 @@
         <v>0.0164795552342797</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0104439844678116</v>
+        <v>0.0104439844678115</v>
       </c>
       <c r="M8" t="n">
         <v>0.0329133575873966</v>
@@ -796,7 +796,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0507792367227714</v>
+        <v>0.0507792367227715</v>
       </c>
       <c r="C9" t="n">
         <v>0.0664602563620942</v>
@@ -840,7 +840,7 @@
         <v>0.0500796525163429</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0597123746892242</v>
+        <v>0.0597123746892243</v>
       </c>
       <c r="D10" t="n">
         <v>0.0956882717397949</v>
@@ -984,10 +984,10 @@
         <v>0.0475406894413292</v>
       </c>
       <c r="J13" t="n">
-        <v>0.037785604500177</v>
+        <v>0.0377856045001771</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0207405595274057</v>
+        <v>0.0207405595274056</v>
       </c>
       <c r="L13" t="n">
         <v>0.0297071000031388</v>
@@ -1256,7 +1256,7 @@
         <v>0.0178209025159898</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0220434950801112</v>
+        <v>0.0220434950801111</v>
       </c>
       <c r="F20" t="n">
         <v>0.0236903702436109</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.00549116006129044</v>
+        <v>0.00549116006129043</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>

--- a/xlsx/country_comparison/field_issue_manual_positive.xlsx
+++ b/xlsx/country_comparison/field_issue_manual_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -47,6 +47,9 @@
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
+    <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
@@ -56,16 +59,19 @@
     <t xml:space="preserve">Nothing; don't know; empty</t>
   </si>
   <si>
+    <t xml:space="preserve">Other topic; unclear; vague</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tax system; welfare benefits; public services</t>
   </si>
   <si>
-    <t xml:space="preserve">Other topic; unclear; vague</t>
+    <t xml:space="preserve">Money; own income; cost of living; inflation</t>
   </si>
   <si>
     <t xml:space="preserve">Health; healthcare system</t>
   </si>
   <si>
-    <t xml:space="preserve">Money; own income; cost of living; inflation</t>
+    <t xml:space="preserve">Old age; retirement; ageing society</t>
   </si>
   <si>
     <t xml:space="preserve">Environment; climate change</t>
@@ -74,43 +80,40 @@
     <t xml:space="preserve">Criticism of immigration; national preference</t>
   </si>
   <si>
-    <t xml:space="preserve">Old age; retirement; ageing society</t>
-  </si>
-  <si>
     <t xml:space="preserve">Security; violence; crime; judicial system</t>
   </si>
   <si>
+    <t xml:space="preserve">Education</t>
+  </si>
+  <si>
     <t xml:space="preserve">Poverty; inequality</t>
   </si>
   <si>
-    <t xml:space="preserve">Education</t>
-  </si>
-  <si>
     <t xml:space="preserve">Discrimination; gender inequality; racism; LGBT</t>
   </si>
   <si>
     <t xml:space="preserve">Housing</t>
   </si>
   <si>
+    <t xml:space="preserve">Family; children; childcare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rights; democracy; freedom; slavery</t>
   </si>
   <si>
-    <t xml:space="preserve">Family; children; childcare</t>
-  </si>
-  <si>
     <t xml:space="preserve">Corruption; criticism of the government</t>
   </si>
   <si>
     <t xml:space="preserve">Work; (un)employment; business</t>
   </si>
   <si>
+    <t xml:space="preserve">War; peace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International issues</t>
+  </si>
+  <si>
     <t xml:space="preserve">Criticism of far right; Trump; tariffs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International issues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">War; peace</t>
   </si>
   <si>
     <t xml:space="preserve">Own country referred</t>
@@ -503,956 +506,1028 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.197989890531552</v>
+        <v>0.205916562209161</v>
       </c>
       <c r="C2" t="n">
         <v>0.148051045728056</v>
       </c>
       <c r="D2" t="n">
-        <v>0.138501464069102</v>
+        <v>0.135053786539649</v>
       </c>
       <c r="E2" t="n">
-        <v>0.205719679290643</v>
+        <v>0.208312040266313</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0709030816274972</v>
+        <v>0.0674503011733369</v>
       </c>
       <c r="G2" t="n">
-        <v>0.322008744657605</v>
+        <v>0.31750142931903</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0575450762030307</v>
+        <v>0.0541576854783427</v>
       </c>
       <c r="I2" t="n">
-        <v>0.105758630825831</v>
+        <v>0.112846606641935</v>
       </c>
       <c r="J2" t="n">
-        <v>0.202660250203406</v>
+        <v>0.18770927129566</v>
       </c>
       <c r="K2" t="n">
-        <v>0.358648128445917</v>
+        <v>0.356075776103628</v>
       </c>
       <c r="L2" t="n">
-        <v>0.165970814351224</v>
+        <v>0.263315848187225</v>
       </c>
       <c r="M2" t="n">
-        <v>0.194826161756528</v>
+        <v>0.186368901340331</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.194878085328945</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.121215657658355</v>
+        <v>0.128122617769171</v>
       </c>
       <c r="C3" t="n">
-        <v>0.124877208989598</v>
+        <v>0.105928313437885</v>
       </c>
       <c r="D3" t="n">
-        <v>0.170016423959133</v>
+        <v>0.114025731593275</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0684977868214666</v>
+        <v>0.0620459721613175</v>
       </c>
       <c r="F3" t="n">
-        <v>0.12557413170005</v>
+        <v>0.130598348261165</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0634128047440736</v>
+        <v>0.0867888451299569</v>
       </c>
       <c r="H3" t="n">
-        <v>0.134048514921496</v>
+        <v>0.127541481242782</v>
       </c>
       <c r="I3" t="n">
-        <v>0.196251198123249</v>
+        <v>0.13767365365957</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0679737350856037</v>
+        <v>0.12922329375083</v>
       </c>
       <c r="K3" t="n">
-        <v>0.189027147858944</v>
+        <v>0.111825127162534</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00496324634123614</v>
+        <v>0.213368769453843</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0996556482437397</v>
+        <v>0.115354709927823</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.131327990014388</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.116680365022322</v>
+        <v>0.121427740436229</v>
       </c>
       <c r="C4" t="n">
-        <v>0.105928313437885</v>
+        <v>0.124877208989598</v>
       </c>
       <c r="D4" t="n">
-        <v>0.117777340048445</v>
+        <v>0.168685656460034</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0631817374212261</v>
+        <v>0.0686317511498856</v>
       </c>
       <c r="F4" t="n">
-        <v>0.128645233847702</v>
+        <v>0.126579895572277</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0745785019334883</v>
+        <v>0.0615755708773298</v>
       </c>
       <c r="H4" t="n">
-        <v>0.128390006372839</v>
+        <v>0.13684055184088</v>
       </c>
       <c r="I4" t="n">
-        <v>0.130233145338353</v>
+        <v>0.193508401632532</v>
       </c>
       <c r="J4" t="n">
-        <v>0.128755558787274</v>
+        <v>0.0769941988282957</v>
       </c>
       <c r="K4" t="n">
-        <v>0.112431390841971</v>
+        <v>0.19244715602453</v>
       </c>
       <c r="L4" t="n">
-        <v>0.11173959783046</v>
+        <v>0.114525225694605</v>
       </c>
       <c r="M4" t="n">
-        <v>0.131502784259155</v>
+        <v>0.00450866497017511</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.100820667262325</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0946326240965739</v>
+        <v>0.098341633354432</v>
       </c>
       <c r="C5" t="n">
-        <v>0.104332069679013</v>
+        <v>0.0699868812689949</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0727087646024017</v>
+        <v>0.0634980246003872</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0548235604207053</v>
+        <v>0.0590304474241373</v>
       </c>
       <c r="F5" t="n">
-        <v>0.18969527089608</v>
+        <v>0.0915334739964326</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0614873637418148</v>
+        <v>0.0658471167720852</v>
       </c>
       <c r="H5" t="n">
-        <v>0.156598291703365</v>
+        <v>0.0751443739890945</v>
       </c>
       <c r="I5" t="n">
-        <v>0.113823486401829</v>
+        <v>0.0721407487696219</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0480688009167547</v>
+        <v>0.0433201006987049</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0406456315016913</v>
+        <v>0.0851953777295827</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0706438468169936</v>
+        <v>0.180453761204481</v>
       </c>
       <c r="M5" t="n">
-        <v>0.107071469108486</v>
+        <v>0.11431020944735</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.107819919173367</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0874536458236186</v>
+        <v>0.0934530556191502</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0699868812689949</v>
+        <v>0.104332069679013</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0633757022751316</v>
+        <v>0.0775383428336519</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0585225910641116</v>
+        <v>0.0598578736463125</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0939008696127573</v>
+        <v>0.183783547518605</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0617697775487132</v>
+        <v>0.0662775835672143</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0706687496406956</v>
+        <v>0.165046052901295</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0767724745504313</v>
+        <v>0.112943516431827</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0464911360103126</v>
+        <v>0.0570684295459394</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0837034572096034</v>
+        <v>0.0405427217190276</v>
       </c>
       <c r="L6" t="n">
-        <v>0.10591414003764</v>
+        <v>0.0806368426274697</v>
       </c>
       <c r="M6" t="n">
-        <v>0.107954316871299</v>
+        <v>0.0737246499346948</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.107435353473236</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0636268803712482</v>
+        <v>0.0622497015299381</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0653881200654641</v>
+        <v>0.0664602563620942</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0403488073376863</v>
+        <v>0.0457503286629834</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0932904858760773</v>
+        <v>0.146069205282707</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0816322017266348</v>
+        <v>0.00941124176422506</v>
       </c>
       <c r="G7" t="n">
-        <v>0.020178564505872</v>
+        <v>0.0359425466939943</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0708043364617774</v>
+        <v>0.071870497597863</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0558787192845458</v>
+        <v>0.0531608551583094</v>
       </c>
       <c r="J7" t="n">
-        <v>0.097075128015278</v>
+        <v>0.0398539858993122</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0101460603464424</v>
+        <v>0.0974121277254069</v>
       </c>
       <c r="L7" t="n">
-        <v>0.107603402117173</v>
+        <v>0.125294080784351</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0793032106226486</v>
+        <v>0.0095320607077013</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0157482322939444</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05089304703529</v>
+        <v>0.0608128217186664</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0809074055784303</v>
+        <v>0.0653881200654641</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0835990492354028</v>
+        <v>0.0417171414326092</v>
       </c>
       <c r="E8" t="n">
-        <v>0.103981579435834</v>
+        <v>0.0976023167486295</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0400337101044929</v>
+        <v>0.0796681413547306</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0654772854472838</v>
+        <v>0.0186779745621404</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0420087826917777</v>
+        <v>0.0656915313607945</v>
       </c>
       <c r="I8" t="n">
-        <v>0.124103811182446</v>
+        <v>0.0578205821604466</v>
       </c>
       <c r="J8" t="n">
-        <v>0.083051593759224</v>
+        <v>0.103351163147725</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0164795552342797</v>
+        <v>0.0101750933236712</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0104439844678115</v>
+        <v>0.0427536423889508</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0329133575873966</v>
+        <v>0.0995309836308743</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.0804688571870162</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0507792367227715</v>
+        <v>0.0457432543517616</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0664602563620942</v>
+        <v>0.0809074055784303</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0456974687720479</v>
+        <v>0.0826649821707132</v>
       </c>
       <c r="E9" t="n">
-        <v>0.146495779100146</v>
+        <v>0.100649221982524</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0105164592700202</v>
+        <v>0.0418887462260778</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0364551724960309</v>
+        <v>0.0622480385807393</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0646427881638193</v>
+        <v>0.0473806741980061</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0536981114869877</v>
+        <v>0.130984212493319</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0397837893845418</v>
+        <v>0.0797058986069775</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0984457754716953</v>
+        <v>0.0159541299823815</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01038355838795</v>
+        <v>0.0109540395661977</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0165716393337311</v>
+        <v>0.0113686826465493</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.0326212453833977</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0500796525163429</v>
+        <v>0.0452858129770717</v>
       </c>
       <c r="C10" t="n">
         <v>0.0597123746892243</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0956882717397949</v>
+        <v>0.0891581750001203</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0416750021343697</v>
+        <v>0.0415504058701168</v>
       </c>
       <c r="F10" t="n">
-        <v>0.090056424072332</v>
+        <v>0.0983539096444607</v>
       </c>
       <c r="G10" t="n">
-        <v>0.042418720433303</v>
+        <v>0.0425195913269175</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0425057849927775</v>
+        <v>0.0401349367583351</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0531956867075385</v>
+        <v>0.0469638707721105</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0157951292141256</v>
+        <v>0.020153757879397</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0265363070055788</v>
+        <v>0.0266426191274933</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0335459994388848</v>
+        <v>0.00958937973348736</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0496624793032985</v>
+        <v>0.026407950269197</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.0476578991066482</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0397070828837157</v>
+        <v>0.0398553837038169</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0476182124172392</v>
+        <v>0.0490142593628369</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0277018209416486</v>
+        <v>0.0197726738446422</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0711490367660588</v>
+        <v>0.0743038606050796</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0478017469991783</v>
+        <v>0.048823191228667</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0132805085288408</v>
+        <v>0.0301759263655652</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0478369277198059</v>
+        <v>0.071528145732022</v>
       </c>
       <c r="I11" t="n">
-        <v>0.050195901566606</v>
+        <v>0.0348738728369418</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0867702527786001</v>
+        <v>0.0966397689287539</v>
       </c>
       <c r="K11" t="n">
-        <v>0.00833038587830089</v>
+        <v>0.0206973475021693</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0708983608168226</v>
+        <v>0.0517978180737473</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0403253419134581</v>
+        <v>0.0395591163024329</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.0323595268329621</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0391474810544132</v>
+        <v>0.0360406894530102</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0490142593628369</v>
+        <v>0.0476182124172392</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0164164271342244</v>
+        <v>0.0288607446083688</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0739517002540561</v>
+        <v>0.067262159528345</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0455878604882147</v>
+        <v>0.0492306876866587</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0328036773152924</v>
+        <v>0.0121518960482321</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0671050523492557</v>
+        <v>0.0428956901965464</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0389154626796474</v>
+        <v>0.0472524432796017</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0931626966332555</v>
+        <v>0.086226959387667</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0203560384649348</v>
+        <v>0.00906486786536209</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0523619194817866</v>
+        <v>0.00851285457083987</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0339464115087384</v>
+        <v>0.0709107503200443</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.0405790839717792</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0380395664775074</v>
+        <v>0.0342893979461218</v>
       </c>
       <c r="C13" t="n">
         <v>0.0283119441449031</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0210819773893052</v>
+        <v>0.0224965587069367</v>
       </c>
       <c r="E13" t="n">
-        <v>0.029234203758636</v>
+        <v>0.0313958154635813</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0293560431443571</v>
+        <v>0.0339373142710368</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00669814084473024</v>
+        <v>0.00683489886143795</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0245432876312</v>
+        <v>0.0254507307973568</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0475406894413292</v>
+        <v>0.037825600159119</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0377856045001771</v>
+        <v>0.0413862540753375</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0207405595274056</v>
+        <v>0.019660546485702</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0297071000031388</v>
+        <v>0.00800160993740867</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0572157750370358</v>
+        <v>0.0282030214415729</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.0567162255963183</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>0.030794279726928</v>
+        <v>0.0314740778832222</v>
       </c>
       <c r="C14" t="n">
         <v>0.0242121145474322</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0218943298436583</v>
+        <v>0.0213098326867421</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00689573896317971</v>
+        <v>0.00493547896337238</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00607127914022499</v>
+        <v>0.00582592343454313</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0140417411742978</v>
+        <v>0.0130163285997694</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0497222292041262</v>
+        <v>0.0463630457427123</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0530574258842777</v>
+        <v>0.0479735029192382</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0185393566157381</v>
+        <v>0.0188528105474387</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0019658296938689</v>
+        <v>0.00231916160843382</v>
       </c>
       <c r="L14" t="n">
-        <v>0.00889747848481</v>
+        <v>0.0353646750751022</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0520955563046277</v>
+        <v>0.00837098825559733</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.0530370687462348</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0250400128357287</v>
+        <v>0.0247902618288788</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0229038683054059</v>
+        <v>0.0287470325879229</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0108061739762354</v>
+        <v>0.0300641272995097</v>
       </c>
       <c r="E15" t="n">
-        <v>0.00925554635740441</v>
+        <v>0.0202403207580321</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0320918521042568</v>
+        <v>0.0324650985595678</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0333394684883234</v>
+        <v>0.00891909271387003</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0190294673643551</v>
+        <v>0.023561735448988</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0393242995805185</v>
+        <v>0.0442819518254717</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0267955555190128</v>
+        <v>0.0232919849290053</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0400022905820529</v>
+        <v>0.0179842611094218</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.052678761357615</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0237010091194293</v>
+        <v>0.00673502454139516</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.013820874405952</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0210368541948329</v>
+        <v>0.0241945214096131</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0287470325879229</v>
+        <v>0.0229038683054059</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0289798151165568</v>
+        <v>0.0102287082814199</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0257351181488729</v>
+        <v>0.00961862363647559</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0329440764533338</v>
+        <v>0.0328599593909241</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0074396019818407</v>
+        <v>0.0340212885276411</v>
       </c>
       <c r="H16" t="n">
-        <v>0.024998519239736</v>
+        <v>0.0201038808477426</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0460310309201218</v>
+        <v>0.0367824480314333</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0178832542446431</v>
+        <v>0.0234226733250337</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0181391382181975</v>
+        <v>0.0411858790005706</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0069047579578598</v>
+        <v>0.0149812560114255</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0143458518089627</v>
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.0237619157023709</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0193742444676115</v>
+        <v>0.0182948468784289</v>
       </c>
       <c r="C17" t="n">
         <v>0.0201816736069127</v>
       </c>
       <c r="D17" t="n">
-        <v>0.028525490934299</v>
+        <v>0.0256939352824335</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0103365188804542</v>
+        <v>0.010723069415007</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00694765792754755</v>
+        <v>0.00813132266944847</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0183128936470154</v>
+        <v>0.0198862042640808</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0610940040580105</v>
+        <v>0.0547367015020709</v>
       </c>
       <c r="I17" t="n">
-        <v>0.00920625997154426</v>
+        <v>0.0100936264973931</v>
       </c>
       <c r="J17" t="n">
-        <v>0.00834103730963557</v>
+        <v>0.0109394536280672</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0196414286721123</v>
+        <v>0.0198510185037309</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>0.0142025232491179</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0200013970443885</v>
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0201846468436101</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0191086261702083</v>
+        <v>0.0177746966683965</v>
       </c>
       <c r="C18" t="n">
         <v>0.0241702320073297</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0164650849559262</v>
+        <v>0.0179863042446056</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0211890842231775</v>
+        <v>0.0223203253071083</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0650217127910245</v>
+        <v>0.065786508031563</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0122878068459338</v>
+        <v>0.00872344729402106</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0185678745742181</v>
+        <v>0.0139552584930983</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0125279576257647</v>
+        <v>0.0118509856528486</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0140475574231894</v>
+        <v>0.0146930240175806</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0683436083672978</v>
+        <v>0.00716312436294637</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0108958815415581</v>
+        <v>0.0716917193534047</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.0112341214439139</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0178628515572247</v>
+        <v>0.0173449393536418</v>
       </c>
       <c r="C19" t="n">
-        <v>0.00668092660737072</v>
+        <v>0.0184495103997934</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.0150821575151955</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0129182280897174</v>
+        <v>0.0315229028881712</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.0204039700326544</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0183537763061473</v>
+        <v>0.0151715264768575</v>
       </c>
       <c r="H19" t="n">
-        <v>0.00602906038002368</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.00466147751962404</v>
+        <v>0.0175676822368405</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.0145974313580889</v>
       </c>
       <c r="K19" t="n">
-        <v>0.00202186276770683</v>
+        <v>0.00159248816660438</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>0.0313591603267884</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0389952674290432</v>
+        <v>0.113326054900484</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.0121397559963494</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0173356804159371</v>
+        <v>0.0162183750097914</v>
       </c>
       <c r="C20" t="n">
         <v>0.0192547949878636</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0178209025159898</v>
+        <v>0.0173853709664895</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0220434950801111</v>
+        <v>0.0226574847316378</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0236903702436109</v>
+        <v>0.0249025889964956</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0266290295400504</v>
+        <v>0.0257392671196332</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0236377071321289</v>
+        <v>0.025129695162077</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0140196451359935</v>
+        <v>0.0145974313580889</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0039668081105584</v>
+        <v>0.00341541111955925</v>
       </c>
       <c r="L20" t="n">
-        <v>0.122027022218028</v>
+        <v>0.00713196803168756</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0113519780494734</v>
+        <v>0.118272779984274</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.0116571175770115</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0166320520433637</v>
+        <v>0.0157548055234574</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0184495103997934</v>
+        <v>0.00668092660737072</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0168682449851334</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0328372244457802</v>
+        <v>0.013764325150363</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0209212049151872</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0155033126208991</v>
+        <v>0.0195190349092333</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.00547833436757934</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0151216324951664</v>
+        <v>0.00503428552860951</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0140196451359935</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.00197789964161942</v>
+        <v>0.00206328870973246</v>
       </c>
       <c r="L21" t="n">
-        <v>0.115377714566483</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0118046013706793</v>
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.0392420338099167</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0154739573174723</v>
+        <v>0.0140256327445195</v>
       </c>
       <c r="C22" t="n">
         <v>0.0234110251309829</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0176064141036268</v>
+        <v>0.0193519704301221</v>
       </c>
       <c r="E22" t="n">
-        <v>0.032722438921652</v>
+        <v>0.0332463434937829</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0215158592665767</v>
+        <v>0.0202987826851817</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0542404046788205</v>
+        <v>0.0499275013361078</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0135183307574546</v>
+        <v>0.0112300087607218</v>
       </c>
       <c r="I22" t="n">
-        <v>0.00961777048165269</v>
+        <v>0.0100534513086251</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.00799733914096668</v>
+        <v>0.00812752890976671</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0116862752064014</v>
+        <v>0.00526462443043878</v>
       </c>
       <c r="M22" t="n">
-        <v>0.00946251867531772</v>
+        <v>0.0102257090959293</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.00958772369127902</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0121031428565324</v>
+        <v>0.0113910353826998</v>
       </c>
       <c r="C23" t="n">
         <v>0.0133480477954036</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0157073553469741</v>
+        <v>0.0147763763684407</v>
       </c>
       <c r="E23" t="n">
-        <v>0.016183971794334</v>
+        <v>0.0153634433547007</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0152789407941024</v>
+        <v>0.0165351962207352</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0136516730556071</v>
+        <v>0.0135196959027871</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0182633610739277</v>
+        <v>0.0200057204279509</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0277494112375967</v>
+        <v>0.0290238916789163</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0124645288283517</v>
+        <v>0.00719437768944606</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0154880587994553</v>
+        <v>0.0105162217296632</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.0158490293150108</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0116948881336728</v>
+        <v>0.0102264393485442</v>
       </c>
       <c r="C24" t="n">
         <v>0.0163891407951073</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0270843576372127</v>
+        <v>0.0299917958352741</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0243148275953029</v>
+        <v>0.0231539924489943</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0103008412084436</v>
+        <v>0.0104291697783865</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0145843679198505</v>
+        <v>0.0155866022738291</v>
       </c>
       <c r="H24" t="n">
-        <v>0.00437588930245375</v>
+        <v>0.00254196806277925</v>
       </c>
       <c r="I24" t="n">
-        <v>0.00910532057743999</v>
+        <v>0.00854354158441195</v>
       </c>
       <c r="J24" t="n">
-        <v>0.040903682110868</v>
+        <v>0.0309821022270974</v>
       </c>
       <c r="K24" t="n">
-        <v>0.00441182592718498</v>
+        <v>0.00480106899825699</v>
       </c>
       <c r="L24" t="n">
-        <v>0.00305032427250752</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.00985178852964817</v>
+        <v>0.00250103347765295</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.00949283101542353</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" t="n">
-        <v>0.00672215313876716</v>
+        <v>0.00644661515367284</v>
       </c>
       <c r="C25" t="n">
         <v>0.00258059488108137</v>
@@ -1461,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.00422846365714941</v>
+        <v>0.00373048642878499</v>
       </c>
       <c r="F25" t="n">
-        <v>0.00523572671293908</v>
+        <v>0.00468631245605415</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.00549116006129043</v>
+        <v>0.00517564032680162</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -1479,62 +1554,68 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.00217457348365939</v>
+        <v>0.00209840702164969</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0074082984101723</v>
+        <v>0.00631437840573418</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0133808136189827</v>
+        <v>0.00634127046837546</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.0135652433636922</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0049790986234129</v>
+        <v>0.00481943803488431</v>
       </c>
       <c r="C26" t="n">
         <v>0.00673586923878724</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00592211650794085</v>
+        <v>0.00707005949926249</v>
       </c>
       <c r="E26" t="n">
-        <v>0.00381995779778217</v>
+        <v>0.00324940409487133</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00453141622080145</v>
+        <v>0.00333489106527946</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0215688620754335</v>
+        <v>0.0220650824403412</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0061265904815267</v>
+        <v>0.00678193979296782</v>
       </c>
       <c r="I26" t="n">
-        <v>0.00549855243030823</v>
+        <v>0.00360790251942962</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.00413358741501217</v>
+        <v>0.00387887404501743</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0219641258610632</v>
+        <v>0.00405228630149418</v>
       </c>
       <c r="M26" t="n">
-        <v>0.00176997231634839</v>
+        <v>0.0198293098826454</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.0018657436591067</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" t="n">
-        <v>0.00325665441128512</v>
+        <v>0.00285131349804953</v>
       </c>
       <c r="C27" t="n">
         <v>0.00408943691223151</v>
@@ -1543,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.00254242129726587</v>
+        <v>0.00352581581970179</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0122420333259625</v>
+        <v>0.0131839315909969</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1555,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.00851607463696249</v>
+        <v>0.00756201292523646</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1564,18 +1645,21 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0.00973873362565546</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.00302453828730453</v>
+        <v>0.00654695247219751</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.00324236988418576</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" t="n">
-        <v>0.00140864850957019</v>
+        <v>0.00156543500863379</v>
       </c>
       <c r="C28" t="n">
         <v>0.00140256859452801</v>
@@ -1593,22 +1677,25 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.00718392148796801</v>
+        <v>0.00884447863272915</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0188851051761194</v>
+        <v>0.0181257294432617</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0.00256135764241812</v>
+        <v>0.0017731440027311</v>
       </c>
       <c r="M28" t="n">
-        <v>0.00188390632435821</v>
+        <v>0.00254774621750064</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.00206660193419295</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/field_issue_manual_positive.xlsx
+++ b/xlsx/country_comparison/field_issue_manual_positive.xlsx
@@ -515,7 +515,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.205916562209161</v>
+        <v>0.206131960774614</v>
       </c>
       <c r="C2" t="n">
         <v>0.148051045728056</v>
@@ -545,7 +545,7 @@
         <v>0.356075776103628</v>
       </c>
       <c r="L2" t="n">
-        <v>0.263315848187225</v>
+        <v>0.265136915284277</v>
       </c>
       <c r="M2" t="n">
         <v>0.186368901340331</v>
@@ -559,7 +559,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.128122617769171</v>
+        <v>0.128385478271774</v>
       </c>
       <c r="C3" t="n">
         <v>0.105928313437885</v>
@@ -589,7 +589,7 @@
         <v>0.111825127162534</v>
       </c>
       <c r="L3" t="n">
-        <v>0.213368769453843</v>
+        <v>0.214446589317426</v>
       </c>
       <c r="M3" t="n">
         <v>0.115354709927823</v>
@@ -603,7 +603,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.121427740436229</v>
+        <v>0.121504904791018</v>
       </c>
       <c r="C4" t="n">
         <v>0.124877208989598</v>
@@ -633,7 +633,7 @@
         <v>0.19244715602453</v>
       </c>
       <c r="L4" t="n">
-        <v>0.114525225694605</v>
+        <v>0.116158709845013</v>
       </c>
       <c r="M4" t="n">
         <v>0.00450866497017511</v>
@@ -647,7 +647,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.098341633354432</v>
+        <v>0.0976189354383576</v>
       </c>
       <c r="C5" t="n">
         <v>0.0699868812689949</v>
@@ -677,7 +677,7 @@
         <v>0.0851953777295827</v>
       </c>
       <c r="L5" t="n">
-        <v>0.180453761204481</v>
+        <v>0.175765446466866</v>
       </c>
       <c r="M5" t="n">
         <v>0.11431020944735</v>
@@ -691,7 +691,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0934530556191502</v>
+        <v>0.0934669828721586</v>
       </c>
       <c r="C6" t="n">
         <v>0.104332069679013</v>
@@ -721,7 +721,7 @@
         <v>0.0405427217190276</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0806368426274697</v>
+        <v>0.0808935076469423</v>
       </c>
       <c r="M6" t="n">
         <v>0.0737246499346948</v>
@@ -735,7 +735,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0622497015299381</v>
+        <v>0.0614658046143035</v>
       </c>
       <c r="C7" t="n">
         <v>0.0664602563620942</v>
@@ -765,7 +765,7 @@
         <v>0.0974121277254069</v>
       </c>
       <c r="L7" t="n">
-        <v>0.125294080784351</v>
+        <v>0.120072277978706</v>
       </c>
       <c r="M7" t="n">
         <v>0.0095320607077013</v>
@@ -779,7 +779,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0608128217186664</v>
+        <v>0.0608840409339486</v>
       </c>
       <c r="C8" t="n">
         <v>0.0653881200654641</v>
@@ -809,7 +809,7 @@
         <v>0.0101750933236712</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0427536423889508</v>
+        <v>0.0430099650972155</v>
       </c>
       <c r="M8" t="n">
         <v>0.0995309836308743</v>
@@ -823,7 +823,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0457432543517616</v>
+        <v>0.0457406608112015</v>
       </c>
       <c r="C9" t="n">
         <v>0.0809074055784303</v>
@@ -853,7 +853,7 @@
         <v>0.0159541299823815</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0109540395661977</v>
+        <v>0.0109184419263214</v>
       </c>
       <c r="M9" t="n">
         <v>0.0113686826465493</v>
@@ -867,7 +867,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0452858129770717</v>
+        <v>0.0452908057636191</v>
       </c>
       <c r="C10" t="n">
         <v>0.0597123746892243</v>
@@ -897,7 +897,7 @@
         <v>0.0266426191274933</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00958937973348736</v>
+        <v>0.00952706872148554</v>
       </c>
       <c r="M10" t="n">
         <v>0.026407950269197</v>
@@ -911,7 +911,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0398553837038169</v>
+        <v>0.0399112341525504</v>
       </c>
       <c r="C11" t="n">
         <v>0.0490142593628369</v>
@@ -941,7 +941,7 @@
         <v>0.0206973475021693</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0517978180737473</v>
+        <v>0.0526169751284135</v>
       </c>
       <c r="M11" t="n">
         <v>0.0395591163024329</v>
@@ -955,7 +955,7 @@
         <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0360406894530102</v>
+        <v>0.0360407460539136</v>
       </c>
       <c r="C12" t="n">
         <v>0.0476182124172392</v>
@@ -985,7 +985,7 @@
         <v>0.00906486786536209</v>
       </c>
       <c r="L12" t="n">
-        <v>0.00851285457083987</v>
+        <v>0.00847443615643126</v>
       </c>
       <c r="M12" t="n">
         <v>0.0709107503200443</v>
@@ -999,7 +999,7 @@
         <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0342893979461218</v>
+        <v>0.0343282905826873</v>
       </c>
       <c r="C13" t="n">
         <v>0.0283119441449031</v>
@@ -1029,7 +1029,7 @@
         <v>0.019660546485702</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00800160993740867</v>
+        <v>0.00796524266518852</v>
       </c>
       <c r="M13" t="n">
         <v>0.0282030214415729</v>
@@ -1043,7 +1043,7 @@
         <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0314740778832222</v>
+        <v>0.0315269231439799</v>
       </c>
       <c r="C14" t="n">
         <v>0.0242121145474322</v>
@@ -1073,7 +1073,7 @@
         <v>0.00231916160843382</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0353646750751022</v>
+        <v>0.0352991314528905</v>
       </c>
       <c r="M14" t="n">
         <v>0.00837098825559733</v>
@@ -1087,7 +1087,7 @@
         <v>27</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0247902618288788</v>
+        <v>0.0248776340630537</v>
       </c>
       <c r="C15" t="n">
         <v>0.0287470325879229</v>
@@ -1117,7 +1117,7 @@
         <v>0.0179842611094218</v>
       </c>
       <c r="L15" t="n">
-        <v>0.052678761357615</v>
+        <v>0.0531312615080841</v>
       </c>
       <c r="M15" t="n">
         <v>0.00673502454139516</v>
@@ -1131,7 +1131,7 @@
         <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0241945214096131</v>
+        <v>0.0241989191930358</v>
       </c>
       <c r="C16" t="n">
         <v>0.0229038683054059</v>
@@ -1161,7 +1161,7 @@
         <v>0.0411858790005706</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0149812560114255</v>
+        <v>0.0149766582702186</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>29</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0182948468784289</v>
+        <v>0.0182912343053855</v>
       </c>
       <c r="C17" t="n">
         <v>0.0201816736069127</v>
@@ -1205,7 +1205,7 @@
         <v>0.0198510185037309</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0142025232491179</v>
+        <v>0.0143443011901445</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1219,7 +1219,7 @@
         <v>30</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0177746966683965</v>
+        <v>0.0177830449326266</v>
       </c>
       <c r="C18" t="n">
         <v>0.0241702320073297</v>
@@ -1249,7 +1249,7 @@
         <v>0.0146930240175806</v>
       </c>
       <c r="L18" t="n">
-        <v>0.00716312436294637</v>
+        <v>0.00710569800876872</v>
       </c>
       <c r="M18" t="n">
         <v>0.0716917193534047</v>
@@ -1263,7 +1263,7 @@
         <v>31</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0173449393536418</v>
+        <v>0.0173674358891639</v>
       </c>
       <c r="C19" t="n">
         <v>0.0184495103997934</v>
@@ -1293,7 +1293,7 @@
         <v>0.00159248816660438</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0313591603267884</v>
+        <v>0.0314412517813568</v>
       </c>
       <c r="M19" t="n">
         <v>0.113326054900484</v>
@@ -1307,7 +1307,7 @@
         <v>32</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0162183750097914</v>
+        <v>0.016221337016591</v>
       </c>
       <c r="C20" t="n">
         <v>0.0192547949878636</v>
@@ -1337,7 +1337,7 @@
         <v>0.00341541111955925</v>
       </c>
       <c r="L20" t="n">
-        <v>0.00713196803168756</v>
+        <v>0.00710309180231421</v>
       </c>
       <c r="M20" t="n">
         <v>0.118272779984274</v>
@@ -1351,7 +1351,7 @@
         <v>33</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0157548055234574</v>
+        <v>0.0157552981182781</v>
       </c>
       <c r="C21" t="n">
         <v>0.00668092660737072</v>
@@ -1395,7 +1395,7 @@
         <v>34</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0140256327445195</v>
+        <v>0.0140277641305992</v>
       </c>
       <c r="C22" t="n">
         <v>0.0234110251309829</v>
@@ -1425,7 +1425,7 @@
         <v>0.00812752890976671</v>
       </c>
       <c r="L22" t="n">
-        <v>0.00526462443043878</v>
+        <v>0.00524126846808217</v>
       </c>
       <c r="M22" t="n">
         <v>0.0102257090959293</v>
@@ -1439,7 +1439,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0113910353826998</v>
+        <v>0.011389314238481</v>
       </c>
       <c r="C23" t="n">
         <v>0.0133480477954036</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.00719437768944606</v>
+        <v>0.00735802273344309</v>
       </c>
       <c r="M23" t="n">
         <v>0.0105162217296632</v>
@@ -1483,7 +1483,7 @@
         <v>36</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0102264393485442</v>
+        <v>0.0102267590916886</v>
       </c>
       <c r="C24" t="n">
         <v>0.0163891407951073</v>
@@ -1527,7 +1527,7 @@
         <v>37</v>
       </c>
       <c r="B25" t="n">
-        <v>0.00644661515367284</v>
+        <v>0.00644437828989618</v>
       </c>
       <c r="C25" t="n">
         <v>0.00258059488108137</v>
@@ -1557,7 +1557,7 @@
         <v>0.00209840702164969</v>
       </c>
       <c r="L25" t="n">
-        <v>0.00631437840573418</v>
+        <v>0.00621249242548451</v>
       </c>
       <c r="M25" t="n">
         <v>0.00634127046837546</v>
@@ -1571,7 +1571,7 @@
         <v>38</v>
       </c>
       <c r="B26" t="n">
-        <v>0.00481943803488431</v>
+        <v>0.00483039875182853</v>
       </c>
       <c r="C26" t="n">
         <v>0.00673586923878724</v>
@@ -1601,7 +1601,7 @@
         <v>0.00387887404501743</v>
       </c>
       <c r="L26" t="n">
-        <v>0.00405228630149418</v>
+        <v>0.00402927805629039</v>
       </c>
       <c r="M26" t="n">
         <v>0.0198293098826454</v>
@@ -1615,7 +1615,7 @@
         <v>39</v>
       </c>
       <c r="B27" t="n">
-        <v>0.00285131349804953</v>
+        <v>0.00285140264813515</v>
       </c>
       <c r="C27" t="n">
         <v>0.00408943691223151</v>
@@ -1659,7 +1659,7 @@
         <v>40</v>
       </c>
       <c r="B28" t="n">
-        <v>0.00156543500863379</v>
+        <v>0.00156886172874624</v>
       </c>
       <c r="C28" t="n">
         <v>0.00140256859452801</v>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0017731440027311</v>
+        <v>0.00174827804801709</v>
       </c>
       <c r="M28" t="n">
         <v>0.00254774621750064</v>
